--- a/Data_frame/balancos_definitivos/MAPT4.xlsx
+++ b/Data_frame/balancos_definitivos/MAPT4.xlsx
@@ -441,302 +441,302 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2008</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2009</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>30/06/2009</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>30/09/2009</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>31/12/2009</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>31/03/2010</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>30/06/2010</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>30/09/2010</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>31/12/2010</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>31/03/2011</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>30/06/2011</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>30/09/2011</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>31/12/2011</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>31/03/2012</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>30/06/2012</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>30/09/2012</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>31/12/2012</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>31/03/2013</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>30/06/2013</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>30/09/2013</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>31/12/2013</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>31/03/2014</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>30/06/2014</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>30/09/2014</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>31/12/2014</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>31/03/2015</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>30/06/2015</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>30/09/2015</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>31/12/2015</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>31/03/2016</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>30/06/2016</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>30/09/2016</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>31/12/2016</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>31/03/2017</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>30/06/2017</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>30/09/2017</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>31/12/2017</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>31/03/2018</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>30/06/2018</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>30/09/2018</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>31/12/2018</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>31/03/2019</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>30/06/2019</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>30/09/2019</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>31/12/2019</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>31/03/2020</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>30/06/2020</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>30/09/2020</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>31/12/2020</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>31/03/2021</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>30/06/2021</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>30/09/2021</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>31/12/2021</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>31/03/2022</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>30/09/2022</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>31/12/2022</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>31/03/2023</t>
         </is>
       </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2023</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>30/09/2023</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2023</t>
+          <t>31/03/2024</t>
         </is>
       </c>
     </row>
@@ -747,40 +747,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C2" t="n">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D2" t="n">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="E2" t="n">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="F2" t="n">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="G2" t="n">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H2" t="n">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="I2" t="n">
-        <v>771</v>
+        <v>813</v>
       </c>
       <c r="J2" t="n">
-        <v>773</v>
+        <v>889</v>
       </c>
       <c r="K2" t="n">
         <v>773</v>
       </c>
       <c r="L2" t="n">
-        <v>813</v>
+        <v>773</v>
       </c>
       <c r="M2" t="n">
-        <v>889</v>
+        <v>773</v>
       </c>
       <c r="N2" t="n">
         <v>773</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -949,25 +949,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2077,19 +2077,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -4674,19 +4674,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -4861,7 +4861,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -4876,13 +4876,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
         <v>2</v>
@@ -5235,40 +5235,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C26" t="n">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D26" t="n">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="E26" t="n">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="F26" t="n">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="G26" t="n">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H26" t="n">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="I26" t="n">
-        <v>771</v>
+        <v>813</v>
       </c>
       <c r="J26" t="n">
-        <v>773</v>
+        <v>889</v>
       </c>
       <c r="K26" t="n">
         <v>773</v>
       </c>
       <c r="L26" t="n">
-        <v>813</v>
+        <v>773</v>
       </c>
       <c r="M26" t="n">
-        <v>889</v>
+        <v>773</v>
       </c>
       <c r="N26" t="n">
         <v>773</v>
@@ -5422,184 +5422,184 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>467</v>
+        <v>566</v>
       </c>
       <c r="C27" t="n">
-        <v>358</v>
+        <v>478</v>
       </c>
       <c r="D27" t="n">
-        <v>660</v>
+        <v>309</v>
       </c>
       <c r="E27" t="n">
-        <v>566</v>
+        <v>267</v>
       </c>
       <c r="F27" t="n">
-        <v>478</v>
+        <v>205</v>
       </c>
       <c r="G27" t="n">
-        <v>309</v>
+        <v>123</v>
       </c>
       <c r="H27" t="n">
-        <v>267</v>
+        <v>37</v>
       </c>
       <c r="I27" t="n">
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="J27" t="n">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="K27" t="n">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="L27" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M27" t="n">
+        <v>76</v>
+      </c>
+      <c r="N27" t="n">
         <v>18</v>
       </c>
-      <c r="N27" t="n">
-        <v>69</v>
-      </c>
       <c r="O27" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="P27" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
+        <v>41</v>
+      </c>
+      <c r="R27" t="n">
         <v>18</v>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>9</v>
       </c>
-      <c r="S27" t="n">
-        <v>3</v>
-      </c>
       <c r="T27" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="V27" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="W27" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="X27" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="Z27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>54</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE27" t="n">
         <v>12</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AF27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>48</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>58</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>42</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR27" t="n">
         <v>4</v>
       </c>
-      <c r="AB27" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>54</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>58</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>38</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>42</v>
-      </c>
       <c r="AS27" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="AT27" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AU27" t="n">
         <v>4</v>
       </c>
       <c r="AV27" t="n">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="AW27" t="n">
+        <v>39</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD27" t="n">
         <v>5</v>
       </c>
-      <c r="AX27" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY27" t="n">
+      <c r="BE27" t="n">
+        <v>47</v>
+      </c>
+      <c r="BF27" t="n">
         <v>5</v>
       </c>
-      <c r="AZ27" t="n">
-        <v>39</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>11</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>41</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>6</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>2</v>
-      </c>
       <c r="BG27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH27" t="n">
         <v>5</v>
       </c>
-      <c r="BH27" t="n">
-        <v>47</v>
-      </c>
       <c r="BI27" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -5796,184 +5796,184 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D29" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>14</v>
+      </c>
+      <c r="G29" t="n">
+        <v>9</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>26</v>
+      </c>
+      <c r="J29" t="n">
+        <v>18</v>
+      </c>
+      <c r="K29" t="n">
+        <v>9</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>60</v>
+      </c>
+      <c r="N29" t="n">
+        <v>18</v>
+      </c>
+      <c r="O29" t="n">
+        <v>9</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>41</v>
+      </c>
+      <c r="R29" t="n">
+        <v>18</v>
+      </c>
+      <c r="S29" t="n">
+        <v>9</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" t="n">
+        <v>50</v>
+      </c>
+      <c r="V29" t="n">
+        <v>21</v>
+      </c>
+      <c r="W29" t="n">
+        <v>12</v>
+      </c>
+      <c r="X29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>54</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>48</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>58</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>42</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ29" t="n">
         <v>17</v>
       </c>
-      <c r="F29" t="n">
-        <v>12</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>14</v>
-      </c>
-      <c r="J29" t="n">
-        <v>9</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>26</v>
-      </c>
-      <c r="M29" t="n">
-        <v>18</v>
-      </c>
-      <c r="N29" t="n">
-        <v>9</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>18</v>
-      </c>
-      <c r="R29" t="n">
-        <v>9</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3</v>
-      </c>
-      <c r="T29" t="n">
-        <v>41</v>
-      </c>
-      <c r="U29" t="n">
-        <v>18</v>
-      </c>
-      <c r="V29" t="n">
-        <v>9</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1</v>
-      </c>
-      <c r="X29" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA29" t="n">
+      <c r="AR29" t="n">
         <v>4</v>
       </c>
-      <c r="AB29" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>54</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>58</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>38</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>42</v>
-      </c>
       <c r="AS29" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="AT29" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AU29" t="n">
         <v>4</v>
       </c>
       <c r="AV29" t="n">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="AW29" t="n">
+        <v>38</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD29" t="n">
         <v>5</v>
       </c>
-      <c r="AX29" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY29" t="n">
+      <c r="BE29" t="n">
+        <v>47</v>
+      </c>
+      <c r="BF29" t="n">
         <v>5</v>
       </c>
-      <c r="AZ29" t="n">
-        <v>38</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>11</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>41</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>6</v>
-      </c>
-      <c r="BF29" t="n">
-        <v>2</v>
-      </c>
       <c r="BG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH29" t="n">
         <v>5</v>
       </c>
-      <c r="BH29" t="n">
-        <v>47</v>
-      </c>
       <c r="BI29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -5983,49 +5983,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>443</v>
+        <v>549</v>
       </c>
       <c r="C30" t="n">
-        <v>358</v>
+        <v>466</v>
       </c>
       <c r="D30" t="n">
-        <v>633</v>
+        <v>307</v>
       </c>
       <c r="E30" t="n">
-        <v>549</v>
+        <v>267</v>
       </c>
       <c r="F30" t="n">
-        <v>466</v>
+        <v>191</v>
       </c>
       <c r="G30" t="n">
-        <v>307</v>
+        <v>114</v>
       </c>
       <c r="H30" t="n">
-        <v>267</v>
+        <v>37</v>
       </c>
       <c r="I30" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N30" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -6124,7 +6124,7 @@
         <v>0</v>
       </c>
       <c r="AW30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX30" t="n">
         <v>0</v>
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="AZ30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA30" t="n">
         <v>0</v>
@@ -6731,184 +6731,184 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG34" t="n">
         <v>1</v>
       </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG34" t="n">
-        <v>0</v>
-      </c>
       <c r="BH34" t="n">
         <v>0</v>
       </c>
       <c r="BI34" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35">
@@ -7292,184 +7292,184 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6507</v>
+        <v>6748</v>
       </c>
       <c r="C37" t="n">
-        <v>6763</v>
+        <v>6869</v>
       </c>
       <c r="D37" t="n">
-        <v>6572</v>
+        <v>4248</v>
       </c>
       <c r="E37" t="n">
-        <v>6748</v>
+        <v>4300</v>
       </c>
       <c r="F37" t="n">
-        <v>6869</v>
+        <v>4436</v>
       </c>
       <c r="G37" t="n">
-        <v>4248</v>
+        <v>4535</v>
       </c>
       <c r="H37" t="n">
-        <v>4300</v>
+        <v>4632</v>
       </c>
       <c r="I37" t="n">
-        <v>4436</v>
+        <v>4737</v>
       </c>
       <c r="J37" t="n">
-        <v>4535</v>
+        <v>4871</v>
       </c>
       <c r="K37" t="n">
-        <v>4632</v>
+        <v>4961</v>
       </c>
       <c r="L37" t="n">
-        <v>4737</v>
+        <v>5008</v>
       </c>
       <c r="M37" t="n">
-        <v>4871</v>
+        <v>5043</v>
       </c>
       <c r="N37" t="n">
-        <v>4961</v>
+        <v>5136</v>
       </c>
       <c r="O37" t="n">
-        <v>5008</v>
+        <v>5164</v>
       </c>
       <c r="P37" t="n">
-        <v>5043</v>
+        <v>5187</v>
       </c>
       <c r="Q37" t="n">
-        <v>5136</v>
+        <v>5218</v>
       </c>
       <c r="R37" t="n">
-        <v>5164</v>
+        <v>5277</v>
       </c>
       <c r="S37" t="n">
-        <v>5187</v>
+        <v>5301</v>
       </c>
       <c r="T37" t="n">
-        <v>5218</v>
+        <v>5322</v>
       </c>
       <c r="U37" t="n">
-        <v>5277</v>
+        <v>5347</v>
       </c>
       <c r="V37" t="n">
-        <v>5301</v>
+        <v>5412</v>
       </c>
       <c r="W37" t="n">
-        <v>5322</v>
+        <v>5436</v>
       </c>
       <c r="X37" t="n">
-        <v>5347</v>
+        <v>5457</v>
       </c>
       <c r="Y37" t="n">
-        <v>5412</v>
+        <v>5483</v>
       </c>
       <c r="Z37" t="n">
-        <v>5436</v>
+        <v>5563</v>
       </c>
       <c r="AA37" t="n">
-        <v>5457</v>
+        <v>5588</v>
       </c>
       <c r="AB37" t="n">
-        <v>5483</v>
+        <v>5666</v>
       </c>
       <c r="AC37" t="n">
-        <v>5563</v>
+        <v>5697</v>
       </c>
       <c r="AD37" t="n">
-        <v>5588</v>
+        <v>5758</v>
       </c>
       <c r="AE37" t="n">
-        <v>5666</v>
+        <v>5806</v>
       </c>
       <c r="AF37" t="n">
-        <v>5697</v>
+        <v>5864</v>
       </c>
       <c r="AG37" t="n">
-        <v>5758</v>
+        <v>5897</v>
       </c>
       <c r="AH37" t="n">
-        <v>5806</v>
+        <v>5952</v>
       </c>
       <c r="AI37" t="n">
-        <v>5864</v>
+        <v>5980</v>
       </c>
       <c r="AJ37" t="n">
-        <v>5897</v>
+        <v>6004</v>
       </c>
       <c r="AK37" t="n">
-        <v>5952</v>
+        <v>6028</v>
       </c>
       <c r="AL37" t="n">
-        <v>5980</v>
+        <v>6100</v>
       </c>
       <c r="AM37" t="n">
-        <v>6004</v>
+        <v>6142</v>
       </c>
       <c r="AN37" t="n">
-        <v>6028</v>
+        <v>6177</v>
       </c>
       <c r="AO37" t="n">
-        <v>6100</v>
+        <v>6204</v>
       </c>
       <c r="AP37" t="n">
-        <v>6142</v>
+        <v>6267</v>
       </c>
       <c r="AQ37" t="n">
-        <v>6177</v>
+        <v>6308</v>
       </c>
       <c r="AR37" t="n">
-        <v>6204</v>
+        <v>6346</v>
       </c>
       <c r="AS37" t="n">
-        <v>6267</v>
+        <v>6381</v>
       </c>
       <c r="AT37" t="n">
-        <v>6308</v>
+        <v>6470</v>
       </c>
       <c r="AU37" t="n">
-        <v>6346</v>
+        <v>6496</v>
       </c>
       <c r="AV37" t="n">
-        <v>6381</v>
+        <v>6515</v>
       </c>
       <c r="AW37" t="n">
-        <v>6470</v>
+        <v>6545</v>
       </c>
       <c r="AX37" t="n">
-        <v>6496</v>
+        <v>6638</v>
       </c>
       <c r="AY37" t="n">
-        <v>6515</v>
+        <v>6667</v>
       </c>
       <c r="AZ37" t="n">
-        <v>6545</v>
+        <v>6694</v>
       </c>
       <c r="BA37" t="n">
-        <v>6638</v>
+        <v>6726</v>
       </c>
       <c r="BB37" t="n">
-        <v>6667</v>
+        <v>6826</v>
       </c>
       <c r="BC37" t="n">
-        <v>6694</v>
+        <v>6844</v>
       </c>
       <c r="BD37" t="n">
-        <v>6726</v>
+        <v>6861</v>
       </c>
       <c r="BE37" t="n">
-        <v>6826</v>
+        <v>6897</v>
       </c>
       <c r="BF37" t="n">
-        <v>6844</v>
+        <v>6975</v>
       </c>
       <c r="BG37" t="n">
-        <v>6861</v>
+        <v>6995</v>
       </c>
       <c r="BH37" t="n">
-        <v>6897</v>
+        <v>7012</v>
       </c>
       <c r="BI37" t="n">
-        <v>6975</v>
+        <v>7044</v>
       </c>
     </row>
     <row r="38">
@@ -7853,184 +7853,184 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2990</v>
+        <v>2719</v>
       </c>
       <c r="C40" t="n">
-        <v>3021</v>
+        <v>2736</v>
       </c>
       <c r="D40" t="n">
-        <v>2691</v>
+        <v>37</v>
       </c>
       <c r="E40" t="n">
-        <v>2719</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2736</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>4632</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>4737</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>4871</v>
       </c>
       <c r="K40" t="n">
-        <v>4632</v>
+        <v>4961</v>
       </c>
       <c r="L40" t="n">
-        <v>4737</v>
+        <v>5008</v>
       </c>
       <c r="M40" t="n">
-        <v>4871</v>
+        <v>5043</v>
       </c>
       <c r="N40" t="n">
-        <v>4961</v>
+        <v>5136</v>
       </c>
       <c r="O40" t="n">
-        <v>5008</v>
+        <v>5164</v>
       </c>
       <c r="P40" t="n">
-        <v>5043</v>
+        <v>5187</v>
       </c>
       <c r="Q40" t="n">
-        <v>5136</v>
+        <v>5218</v>
       </c>
       <c r="R40" t="n">
-        <v>5164</v>
+        <v>5277</v>
       </c>
       <c r="S40" t="n">
-        <v>5187</v>
+        <v>5301</v>
       </c>
       <c r="T40" t="n">
-        <v>5218</v>
+        <v>5322</v>
       </c>
       <c r="U40" t="n">
-        <v>5277</v>
+        <v>5347</v>
       </c>
       <c r="V40" t="n">
-        <v>5301</v>
+        <v>5412</v>
       </c>
       <c r="W40" t="n">
-        <v>5322</v>
+        <v>5436</v>
       </c>
       <c r="X40" t="n">
-        <v>5347</v>
+        <v>5457</v>
       </c>
       <c r="Y40" t="n">
-        <v>5412</v>
+        <v>5483</v>
       </c>
       <c r="Z40" t="n">
-        <v>5436</v>
+        <v>5563</v>
       </c>
       <c r="AA40" t="n">
-        <v>5457</v>
+        <v>5588</v>
       </c>
       <c r="AB40" t="n">
-        <v>5483</v>
+        <v>5666</v>
       </c>
       <c r="AC40" t="n">
-        <v>5563</v>
+        <v>5697</v>
       </c>
       <c r="AD40" t="n">
-        <v>5588</v>
+        <v>5758</v>
       </c>
       <c r="AE40" t="n">
-        <v>5666</v>
+        <v>5806</v>
       </c>
       <c r="AF40" t="n">
-        <v>5697</v>
+        <v>5864</v>
       </c>
       <c r="AG40" t="n">
-        <v>5758</v>
+        <v>5897</v>
       </c>
       <c r="AH40" t="n">
-        <v>5806</v>
+        <v>5952</v>
       </c>
       <c r="AI40" t="n">
-        <v>5864</v>
+        <v>5980</v>
       </c>
       <c r="AJ40" t="n">
-        <v>5897</v>
+        <v>6004</v>
       </c>
       <c r="AK40" t="n">
-        <v>5952</v>
+        <v>6028</v>
       </c>
       <c r="AL40" t="n">
-        <v>5980</v>
+        <v>6100</v>
       </c>
       <c r="AM40" t="n">
-        <v>6004</v>
+        <v>6142</v>
       </c>
       <c r="AN40" t="n">
-        <v>6028</v>
+        <v>6177</v>
       </c>
       <c r="AO40" t="n">
-        <v>6100</v>
+        <v>6204</v>
       </c>
       <c r="AP40" t="n">
-        <v>6142</v>
+        <v>6267</v>
       </c>
       <c r="AQ40" t="n">
-        <v>6177</v>
+        <v>6308</v>
       </c>
       <c r="AR40" t="n">
-        <v>6204</v>
+        <v>6346</v>
       </c>
       <c r="AS40" t="n">
-        <v>6267</v>
+        <v>6381</v>
       </c>
       <c r="AT40" t="n">
-        <v>6308</v>
+        <v>6470</v>
       </c>
       <c r="AU40" t="n">
-        <v>6346</v>
+        <v>6496</v>
       </c>
       <c r="AV40" t="n">
-        <v>6381</v>
+        <v>6515</v>
       </c>
       <c r="AW40" t="n">
-        <v>6470</v>
+        <v>6545</v>
       </c>
       <c r="AX40" t="n">
-        <v>6496</v>
+        <v>6638</v>
       </c>
       <c r="AY40" t="n">
-        <v>6515</v>
+        <v>6667</v>
       </c>
       <c r="AZ40" t="n">
-        <v>6545</v>
+        <v>6694</v>
       </c>
       <c r="BA40" t="n">
-        <v>6638</v>
+        <v>6726</v>
       </c>
       <c r="BB40" t="n">
-        <v>6667</v>
+        <v>6826</v>
       </c>
       <c r="BC40" t="n">
-        <v>6694</v>
+        <v>6844</v>
       </c>
       <c r="BD40" t="n">
-        <v>6726</v>
+        <v>6861</v>
       </c>
       <c r="BE40" t="n">
-        <v>6826</v>
+        <v>6897</v>
       </c>
       <c r="BF40" t="n">
-        <v>6844</v>
+        <v>6975</v>
       </c>
       <c r="BG40" t="n">
-        <v>6861</v>
+        <v>6995</v>
       </c>
       <c r="BH40" t="n">
-        <v>6897</v>
+        <v>7012</v>
       </c>
       <c r="BI40" t="n">
-        <v>6975</v>
+        <v>7044</v>
       </c>
     </row>
     <row r="41">
@@ -8227,31 +8227,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3517</v>
+        <v>4029</v>
       </c>
       <c r="C42" t="n">
-        <v>3742</v>
+        <v>4133</v>
       </c>
       <c r="D42" t="n">
-        <v>3881</v>
+        <v>4211</v>
       </c>
       <c r="E42" t="n">
-        <v>4029</v>
+        <v>4300</v>
       </c>
       <c r="F42" t="n">
-        <v>4133</v>
+        <v>4436</v>
       </c>
       <c r="G42" t="n">
-        <v>4211</v>
+        <v>4535</v>
       </c>
       <c r="H42" t="n">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>4436</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>4535</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -9162,184 +9162,184 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-6188</v>
+        <v>-6531</v>
       </c>
       <c r="C47" t="n">
-        <v>-6336</v>
+        <v>-6564</v>
       </c>
       <c r="D47" t="n">
-        <v>-6448</v>
+        <v>-3785</v>
       </c>
       <c r="E47" t="n">
-        <v>-6531</v>
+        <v>-3796</v>
       </c>
       <c r="F47" t="n">
-        <v>-6564</v>
+        <v>-3870</v>
       </c>
       <c r="G47" t="n">
-        <v>-3785</v>
+        <v>-3885</v>
       </c>
       <c r="H47" t="n">
-        <v>-3796</v>
+        <v>-3896</v>
       </c>
       <c r="I47" t="n">
-        <v>-3870</v>
+        <v>-3950</v>
       </c>
       <c r="J47" t="n">
-        <v>-3885</v>
+        <v>-4000</v>
       </c>
       <c r="K47" t="n">
-        <v>-3896</v>
+        <v>-4257</v>
       </c>
       <c r="L47" t="n">
-        <v>-3950</v>
+        <v>-4274</v>
       </c>
       <c r="M47" t="n">
-        <v>-4000</v>
+        <v>-4346</v>
       </c>
       <c r="N47" t="n">
-        <v>-4257</v>
+        <v>-4381</v>
       </c>
       <c r="O47" t="n">
-        <v>-4274</v>
+        <v>-4400</v>
       </c>
       <c r="P47" t="n">
-        <v>-4346</v>
+        <v>-4417</v>
       </c>
       <c r="Q47" t="n">
-        <v>-4381</v>
+        <v>-4486</v>
       </c>
       <c r="R47" t="n">
-        <v>-4400</v>
+        <v>-4522</v>
       </c>
       <c r="S47" t="n">
-        <v>-4417</v>
+        <v>-4537</v>
       </c>
       <c r="T47" t="n">
-        <v>-4486</v>
+        <v>-4550</v>
       </c>
       <c r="U47" t="n">
-        <v>-4522</v>
+        <v>-4624</v>
       </c>
       <c r="V47" t="n">
-        <v>-4537</v>
+        <v>-4660</v>
       </c>
       <c r="W47" t="n">
-        <v>-4550</v>
+        <v>-4675</v>
       </c>
       <c r="X47" t="n">
-        <v>-4624</v>
+        <v>-4688</v>
       </c>
       <c r="Y47" t="n">
-        <v>-4660</v>
+        <v>-4750</v>
       </c>
       <c r="Z47" t="n">
-        <v>-4675</v>
+        <v>-4812</v>
       </c>
       <c r="AA47" t="n">
-        <v>-4688</v>
+        <v>-4828</v>
       </c>
       <c r="AB47" t="n">
-        <v>-4750</v>
+        <v>-4897</v>
       </c>
       <c r="AC47" t="n">
-        <v>-4812</v>
+        <v>-4978</v>
       </c>
       <c r="AD47" t="n">
-        <v>-4828</v>
+        <v>-5007</v>
       </c>
       <c r="AE47" t="n">
-        <v>-4897</v>
+        <v>-5045</v>
       </c>
       <c r="AF47" t="n">
-        <v>-4978</v>
+        <v>-5097</v>
       </c>
       <c r="AG47" t="n">
-        <v>-5007</v>
+        <v>-5172</v>
       </c>
       <c r="AH47" t="n">
-        <v>-5045</v>
+        <v>-5203</v>
       </c>
       <c r="AI47" t="n">
-        <v>-5097</v>
+        <v>-5221</v>
       </c>
       <c r="AJ47" t="n">
-        <v>-5172</v>
+        <v>-5238</v>
       </c>
       <c r="AK47" t="n">
-        <v>-5203</v>
+        <v>-5313</v>
       </c>
       <c r="AL47" t="n">
-        <v>-5221</v>
+        <v>-5365</v>
       </c>
       <c r="AM47" t="n">
-        <v>-5238</v>
+        <v>-5391</v>
       </c>
       <c r="AN47" t="n">
-        <v>-5313</v>
+        <v>-5414</v>
       </c>
       <c r="AO47" t="n">
-        <v>-5365</v>
+        <v>-5473</v>
       </c>
       <c r="AP47" t="n">
-        <v>-5391</v>
+        <v>-5525</v>
       </c>
       <c r="AQ47" t="n">
-        <v>-5414</v>
+        <v>-5552</v>
       </c>
       <c r="AR47" t="n">
-        <v>-5473</v>
+        <v>-5577</v>
       </c>
       <c r="AS47" t="n">
-        <v>-5525</v>
+        <v>-5657</v>
       </c>
       <c r="AT47" t="n">
-        <v>-5552</v>
+        <v>-5702</v>
       </c>
       <c r="AU47" t="n">
-        <v>-5577</v>
+        <v>-5727</v>
       </c>
       <c r="AV47" t="n">
-        <v>-5657</v>
+        <v>-5747</v>
       </c>
       <c r="AW47" t="n">
-        <v>-5702</v>
+        <v>-5811</v>
       </c>
       <c r="AX47" t="n">
-        <v>-5727</v>
+        <v>-5876</v>
       </c>
       <c r="AY47" t="n">
-        <v>-5747</v>
+        <v>-5898</v>
       </c>
       <c r="AZ47" t="n">
-        <v>-5811</v>
+        <v>-5925</v>
       </c>
       <c r="BA47" t="n">
-        <v>-5876</v>
+        <v>-5994</v>
       </c>
       <c r="BB47" t="n">
-        <v>-5898</v>
+        <v>-6059</v>
       </c>
       <c r="BC47" t="n">
-        <v>-5925</v>
+        <v>-6073</v>
       </c>
       <c r="BD47" t="n">
-        <v>-5994</v>
+        <v>-6093</v>
       </c>
       <c r="BE47" t="n">
-        <v>-6059</v>
+        <v>-6171</v>
       </c>
       <c r="BF47" t="n">
-        <v>-6073</v>
+        <v>-6207</v>
       </c>
       <c r="BG47" t="n">
-        <v>-6093</v>
+        <v>-6223</v>
       </c>
       <c r="BH47" t="n">
-        <v>-6171</v>
+        <v>-6244</v>
       </c>
       <c r="BI47" t="n">
-        <v>-6207</v>
+        <v>-6313</v>
       </c>
     </row>
     <row r="48">
@@ -10097,184 +10097,184 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-29738</v>
+        <v>-30081</v>
       </c>
       <c r="C52" t="n">
-        <v>-29886</v>
+        <v>-30114</v>
       </c>
       <c r="D52" t="n">
-        <v>-29998</v>
+        <v>-27335</v>
       </c>
       <c r="E52" t="n">
-        <v>-30081</v>
+        <v>-27346</v>
       </c>
       <c r="F52" t="n">
-        <v>-30114</v>
+        <v>-27420</v>
       </c>
       <c r="G52" t="n">
-        <v>-27335</v>
+        <v>-27435</v>
       </c>
       <c r="H52" t="n">
-        <v>-27346</v>
+        <v>-27446</v>
       </c>
       <c r="I52" t="n">
-        <v>-27420</v>
+        <v>-27500</v>
       </c>
       <c r="J52" t="n">
-        <v>-27435</v>
+        <v>-27550</v>
       </c>
       <c r="K52" t="n">
-        <v>-27446</v>
+        <v>-27807</v>
       </c>
       <c r="L52" t="n">
-        <v>-27500</v>
+        <v>-27824</v>
       </c>
       <c r="M52" t="n">
-        <v>-27550</v>
+        <v>-27896</v>
       </c>
       <c r="N52" t="n">
-        <v>-27807</v>
+        <v>-27931</v>
       </c>
       <c r="O52" t="n">
-        <v>-27824</v>
+        <v>-27950</v>
       </c>
       <c r="P52" t="n">
-        <v>-27896</v>
+        <v>-27967</v>
       </c>
       <c r="Q52" t="n">
-        <v>-27931</v>
+        <v>-28036</v>
       </c>
       <c r="R52" t="n">
-        <v>-27950</v>
+        <v>-28072</v>
       </c>
       <c r="S52" t="n">
-        <v>-27967</v>
+        <v>-28087</v>
       </c>
       <c r="T52" t="n">
-        <v>-28036</v>
+        <v>-28100</v>
       </c>
       <c r="U52" t="n">
-        <v>-28072</v>
+        <v>-28174</v>
       </c>
       <c r="V52" t="n">
-        <v>-28087</v>
+        <v>-28210</v>
       </c>
       <c r="W52" t="n">
-        <v>-28100</v>
+        <v>-28225</v>
       </c>
       <c r="X52" t="n">
-        <v>-28174</v>
+        <v>-28238</v>
       </c>
       <c r="Y52" t="n">
-        <v>-28210</v>
+        <v>-28300</v>
       </c>
       <c r="Z52" t="n">
-        <v>-28225</v>
+        <v>-28362</v>
       </c>
       <c r="AA52" t="n">
-        <v>-28238</v>
+        <v>-28378</v>
       </c>
       <c r="AB52" t="n">
-        <v>-28300</v>
+        <v>-28447</v>
       </c>
       <c r="AC52" t="n">
-        <v>-28362</v>
+        <v>-28528</v>
       </c>
       <c r="AD52" t="n">
-        <v>-28378</v>
+        <v>-28557</v>
       </c>
       <c r="AE52" t="n">
-        <v>-28447</v>
+        <v>-28595</v>
       </c>
       <c r="AF52" t="n">
-        <v>-28528</v>
+        <v>-28647</v>
       </c>
       <c r="AG52" t="n">
-        <v>-28557</v>
+        <v>-28722</v>
       </c>
       <c r="AH52" t="n">
-        <v>-28595</v>
+        <v>-28753</v>
       </c>
       <c r="AI52" t="n">
-        <v>-28647</v>
+        <v>-28771</v>
       </c>
       <c r="AJ52" t="n">
-        <v>-28722</v>
+        <v>-28788</v>
       </c>
       <c r="AK52" t="n">
-        <v>-28753</v>
+        <v>-28863</v>
       </c>
       <c r="AL52" t="n">
-        <v>-28771</v>
+        <v>-28915</v>
       </c>
       <c r="AM52" t="n">
-        <v>-28788</v>
+        <v>-28941</v>
       </c>
       <c r="AN52" t="n">
-        <v>-28863</v>
+        <v>-28964</v>
       </c>
       <c r="AO52" t="n">
-        <v>-28915</v>
+        <v>-29023</v>
       </c>
       <c r="AP52" t="n">
-        <v>-28941</v>
+        <v>-29075</v>
       </c>
       <c r="AQ52" t="n">
-        <v>-28964</v>
+        <v>-29102</v>
       </c>
       <c r="AR52" t="n">
-        <v>-29023</v>
+        <v>-29127</v>
       </c>
       <c r="AS52" t="n">
-        <v>-29075</v>
+        <v>-29207</v>
       </c>
       <c r="AT52" t="n">
-        <v>-29102</v>
+        <v>-29252</v>
       </c>
       <c r="AU52" t="n">
-        <v>-29127</v>
+        <v>-29277</v>
       </c>
       <c r="AV52" t="n">
-        <v>-29207</v>
+        <v>-29297</v>
       </c>
       <c r="AW52" t="n">
-        <v>-29252</v>
+        <v>-29361</v>
       </c>
       <c r="AX52" t="n">
-        <v>-29277</v>
+        <v>-29426</v>
       </c>
       <c r="AY52" t="n">
-        <v>-29297</v>
+        <v>-29448</v>
       </c>
       <c r="AZ52" t="n">
-        <v>-29361</v>
+        <v>-29475</v>
       </c>
       <c r="BA52" t="n">
-        <v>-29426</v>
+        <v>-29544</v>
       </c>
       <c r="BB52" t="n">
-        <v>-29448</v>
+        <v>-29609</v>
       </c>
       <c r="BC52" t="n">
-        <v>-29475</v>
+        <v>-29623</v>
       </c>
       <c r="BD52" t="n">
-        <v>-29544</v>
+        <v>-29643</v>
       </c>
       <c r="BE52" t="n">
-        <v>-29609</v>
+        <v>-29721</v>
       </c>
       <c r="BF52" t="n">
-        <v>-29623</v>
+        <v>-29757</v>
       </c>
       <c r="BG52" t="n">
-        <v>-29643</v>
+        <v>-29773</v>
       </c>
       <c r="BH52" t="n">
-        <v>-29721</v>
+        <v>-29794</v>
       </c>
       <c r="BI52" t="n">
-        <v>-29757</v>
+        <v>-29863</v>
       </c>
     </row>
     <row r="53">
@@ -11046,15 +11046,9 @@
       <c r="F57" t="n">
         <v>0</v>
       </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
@@ -11129,15 +11123,9 @@
       <c r="F58" t="n">
         <v>0</v>
       </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
@@ -11946,184 +11934,184 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-111</v>
+        <v>-11</v>
       </c>
       <c r="C63" t="n">
-        <v>-76</v>
+        <v>-2</v>
       </c>
       <c r="D63" t="n">
-        <v>-48</v>
+        <v>-11</v>
       </c>
       <c r="E63" t="n">
-        <v>-11</v>
+        <v>-74</v>
       </c>
       <c r="F63" t="n">
-        <v>-2</v>
+        <v>-15</v>
       </c>
       <c r="G63" t="n">
         <v>-11</v>
       </c>
       <c r="H63" t="n">
+        <v>-52</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-52</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-47</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-12</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-10</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-69</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-33</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-15</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-9</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-67</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-56</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-73</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>-14</v>
+      </c>
+      <c r="X63" t="n">
+        <v>-45</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>-60</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>-60</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>-15</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>-69</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>-78</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>-28</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>-34</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>-42</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>-70</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>-26</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>-14</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>-11</v>
+      </c>
+      <c r="AK63" t="n">
         <v>-74</v>
       </c>
-      <c r="I63" t="n">
+      <c r="AL63" t="n">
+        <v>-52</v>
+      </c>
+      <c r="AM63" t="n">
         <v>-15</v>
       </c>
-      <c r="J63" t="n">
-        <v>-11</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-52</v>
-      </c>
-      <c r="L63" t="n">
-        <v>-52</v>
-      </c>
-      <c r="M63" t="n">
+      <c r="AN63" t="n">
+        <v>-10</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>-53</v>
+      </c>
+      <c r="AP63" t="n">
         <v>-47</v>
       </c>
-      <c r="N63" t="n">
-        <v>-12</v>
-      </c>
-      <c r="O63" t="n">
-        <v>-10</v>
-      </c>
-      <c r="P63" t="n">
-        <v>-69</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>-33</v>
-      </c>
-      <c r="R63" t="n">
-        <v>-15</v>
-      </c>
-      <c r="S63" t="n">
-        <v>-9</v>
-      </c>
-      <c r="T63" t="n">
-        <v>-67</v>
-      </c>
-      <c r="U63" t="n">
-        <v>0</v>
-      </c>
-      <c r="V63" t="n">
-        <v>0</v>
-      </c>
-      <c r="W63" t="n">
-        <v>-56</v>
-      </c>
-      <c r="X63" t="n">
-        <v>-73</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>-14</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>-45</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>-60</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>-60</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>-15</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>-69</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>-78</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>-28</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>-34</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>-42</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>-70</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>-26</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>-14</v>
-      </c>
-      <c r="AM63" t="n">
-        <v>-11</v>
-      </c>
-      <c r="AN63" t="n">
+      <c r="AQ63" t="n">
+        <v>-21</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>-20</v>
+      </c>
+      <c r="AS63" t="n">
         <v>-74</v>
       </c>
-      <c r="AO63" t="n">
-        <v>-52</v>
-      </c>
-      <c r="AP63" t="n">
-        <v>-15</v>
-      </c>
-      <c r="AQ63" t="n">
-        <v>-10</v>
-      </c>
-      <c r="AR63" t="n">
-        <v>-53</v>
-      </c>
-      <c r="AS63" t="n">
-        <v>-47</v>
-      </c>
       <c r="AT63" t="n">
-        <v>-21</v>
+        <v>-39</v>
       </c>
       <c r="AU63" t="n">
         <v>-20</v>
       </c>
       <c r="AV63" t="n">
-        <v>-74</v>
+        <v>-16</v>
       </c>
       <c r="AW63" t="n">
-        <v>-39</v>
+        <v>-58</v>
       </c>
       <c r="AX63" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="AY63" t="n">
-        <v>-16</v>
+        <v>-21</v>
       </c>
       <c r="AZ63" t="n">
         <v>-58</v>
       </c>
       <c r="BA63" t="n">
-        <v>0</v>
+        <v>-49</v>
       </c>
       <c r="BB63" t="n">
+        <v>-14</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>-29</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>-76</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>-19</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>-16</v>
+      </c>
+      <c r="BG63" t="n">
         <v>-21</v>
       </c>
-      <c r="BC63" t="n">
-        <v>-58</v>
-      </c>
-      <c r="BD63" t="n">
-        <v>-49</v>
-      </c>
-      <c r="BE63" t="n">
-        <v>-14</v>
-      </c>
-      <c r="BF63" t="n">
-        <v>-29</v>
-      </c>
-      <c r="BG63" t="n">
-        <v>-76</v>
-      </c>
       <c r="BH63" t="n">
-        <v>-19</v>
+        <v>-67</v>
       </c>
       <c r="BI63" t="n">
-        <v>-16</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="64">
@@ -12138,9 +12126,15 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
@@ -12440,7 +12434,7 @@
         <v>0</v>
       </c>
       <c r="AV65" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AW65" t="n">
         <v>0</v>
@@ -12449,7 +12443,7 @@
         <v>0</v>
       </c>
       <c r="AY65" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="AZ65" t="n">
         <v>0</v>
@@ -12489,184 +12483,184 @@
         </is>
       </c>
       <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J66" t="n">
         <v>-3</v>
       </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
       <c r="K66" t="n">
+        <v>-244</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M66" t="n">
         <v>-2</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>-2</v>
       </c>
-      <c r="M66" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-244</v>
-      </c>
       <c r="O66" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="P66" t="n">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="Q66" t="n">
         <v>-2</v>
       </c>
       <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-8</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X66" t="n">
         <v>-4</v>
       </c>
-      <c r="S66" t="n">
-        <v>-7</v>
-      </c>
-      <c r="T66" t="n">
+      <c r="Y66" t="n">
         <v>-2</v>
       </c>
-      <c r="U66" t="n">
-        <v>0</v>
-      </c>
-      <c r="V66" t="n">
-        <v>0</v>
-      </c>
-      <c r="W66" t="n">
-        <v>-8</v>
-      </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AA66" t="n">
         <v>-1</v>
       </c>
-      <c r="Y66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>-4</v>
-      </c>
       <c r="AB66" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC66" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AD66" t="n">
         <v>-1</v>
       </c>
       <c r="AE66" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AF66" t="n">
+        <v>-8</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>-11</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>-8</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>-6</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>-6</v>
+      </c>
+      <c r="AR66" t="n">
         <v>-3</v>
       </c>
-      <c r="AG66" t="n">
+      <c r="AS66" t="n">
+        <v>-6</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>-6</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>-16</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC66" t="n">
         <v>-1</v>
       </c>
-      <c r="AH66" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>-8</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>-5</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>-5</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AM66" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AO66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP66" t="n">
-        <v>-11</v>
-      </c>
-      <c r="AQ66" t="n">
-        <v>-8</v>
-      </c>
-      <c r="AR66" t="n">
-        <v>-6</v>
-      </c>
-      <c r="AS66" t="n">
-        <v>-5</v>
-      </c>
-      <c r="AT66" t="n">
-        <v>-6</v>
-      </c>
-      <c r="AU66" t="n">
-        <v>-3</v>
-      </c>
-      <c r="AV66" t="n">
-        <v>-6</v>
-      </c>
-      <c r="AW66" t="n">
-        <v>-5</v>
-      </c>
-      <c r="AX66" t="n">
-        <v>-5</v>
-      </c>
-      <c r="AY66" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ66" t="n">
-        <v>-6</v>
-      </c>
-      <c r="BA66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB66" t="n">
-        <v>-5</v>
-      </c>
-      <c r="BC66" t="n">
-        <v>0</v>
-      </c>
       <c r="BD66" t="n">
-        <v>-16</v>
+        <v>-2</v>
       </c>
       <c r="BE66" t="n">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="BF66" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BG66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH66" t="n">
         <v>-2</v>
       </c>
-      <c r="BH66" t="n">
-        <v>-17</v>
-      </c>
       <c r="BI66" t="n">
-        <v>0</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="67">
@@ -12863,19 +12857,19 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-37</v>
+        <v>-22</v>
       </c>
       <c r="C68" t="n">
-        <v>-36</v>
+        <v>2781</v>
       </c>
       <c r="D68" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>2781</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -12890,19 +12884,19 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N68" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P68" t="n">
         <v>-1</v>
@@ -12914,94 +12908,94 @@
         <v>0</v>
       </c>
       <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV68" t="n">
         <v>-1</v>
-      </c>
-      <c r="T68" t="n">
-        <v>0</v>
-      </c>
-      <c r="U68" t="n">
-        <v>0</v>
-      </c>
-      <c r="V68" t="n">
-        <v>0</v>
-      </c>
-      <c r="W68" t="n">
-        <v>0</v>
-      </c>
-      <c r="X68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM68" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ68" t="n">
-        <v>-5</v>
-      </c>
-      <c r="AR68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU68" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AV68" t="n">
-        <v>0</v>
       </c>
       <c r="AW68" t="n">
         <v>0</v>
@@ -13019,7 +13013,7 @@
         <v>0</v>
       </c>
       <c r="BB68" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BC68" t="n">
         <v>0</v>
@@ -13053,7 +13047,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>2781</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -13062,7 +13056,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>2781</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -13237,16 +13231,16 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-37</v>
+        <v>-22</v>
       </c>
       <c r="C70" t="n">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -13264,19 +13258,19 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N70" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P70" t="n">
         <v>-1</v>
@@ -13288,94 +13282,94 @@
         <v>0</v>
       </c>
       <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV70" t="n">
         <v>-1</v>
-      </c>
-      <c r="T70" t="n">
-        <v>0</v>
-      </c>
-      <c r="U70" t="n">
-        <v>0</v>
-      </c>
-      <c r="V70" t="n">
-        <v>0</v>
-      </c>
-      <c r="W70" t="n">
-        <v>0</v>
-      </c>
-      <c r="X70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM70" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ70" t="n">
-        <v>-5</v>
-      </c>
-      <c r="AR70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU70" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AV70" t="n">
-        <v>0</v>
       </c>
       <c r="AW70" t="n">
         <v>0</v>
@@ -13393,7 +13387,7 @@
         <v>0</v>
       </c>
       <c r="BB70" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BC70" t="n">
         <v>0</v>
@@ -13424,7 +13418,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -13438,15 +13432,9 @@
       <c r="F71" t="n">
         <v>0</v>
       </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
@@ -13521,15 +13509,9 @@
       <c r="F72" t="n">
         <v>0</v>
       </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
@@ -13590,7 +13572,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -13604,15 +13586,9 @@
       <c r="F73" t="n">
         <v>0</v>
       </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
@@ -13673,184 +13649,184 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-148</v>
+        <v>-33</v>
       </c>
       <c r="C74" t="n">
-        <v>-112</v>
+        <v>2779</v>
       </c>
       <c r="D74" t="n">
-        <v>-83</v>
+        <v>-11</v>
       </c>
       <c r="E74" t="n">
-        <v>-33</v>
+        <v>-74</v>
       </c>
       <c r="F74" t="n">
-        <v>2779</v>
+        <v>-15</v>
       </c>
       <c r="G74" t="n">
         <v>-11</v>
       </c>
       <c r="H74" t="n">
+        <v>-54</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-54</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-50</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-257</v>
+      </c>
+      <c r="L74" t="n">
+        <v>-17</v>
+      </c>
+      <c r="M74" t="n">
+        <v>-72</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-35</v>
+      </c>
+      <c r="O74" t="n">
+        <v>-19</v>
+      </c>
+      <c r="P74" t="n">
+        <v>-17</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>-69</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>-64</v>
+      </c>
+      <c r="U74" t="n">
         <v>-74</v>
       </c>
-      <c r="I74" t="n">
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="n">
         <v>-15</v>
       </c>
-      <c r="J74" t="n">
-        <v>-11</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-54</v>
-      </c>
-      <c r="L74" t="n">
-        <v>-54</v>
-      </c>
-      <c r="M74" t="n">
-        <v>-50</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-257</v>
-      </c>
-      <c r="O74" t="n">
+      <c r="X74" t="n">
+        <v>-49</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>-62</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>-62</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>-16</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>-69</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>-81</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>-29</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>-38</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>-52</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>-75</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>-31</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>-18</v>
+      </c>
+      <c r="AJ74" t="n">
         <v>-17</v>
       </c>
-      <c r="P74" t="n">
-        <v>-72</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>-35</v>
-      </c>
-      <c r="R74" t="n">
-        <v>-19</v>
-      </c>
-      <c r="S74" t="n">
-        <v>-17</v>
-      </c>
-      <c r="T74" t="n">
-        <v>-69</v>
-      </c>
-      <c r="U74" t="n">
-        <v>0</v>
-      </c>
-      <c r="V74" t="n">
-        <v>0</v>
-      </c>
-      <c r="W74" t="n">
-        <v>-64</v>
-      </c>
-      <c r="X74" t="n">
-        <v>-74</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>-15</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>-49</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>-62</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>-62</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>-16</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>-69</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>-81</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>-29</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>-38</v>
-      </c>
-      <c r="AI74" t="n">
+      <c r="AK74" t="n">
+        <v>-75</v>
+      </c>
+      <c r="AL74" t="n">
         <v>-52</v>
       </c>
-      <c r="AJ74" t="n">
-        <v>-75</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>-31</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>-18</v>
-      </c>
       <c r="AM74" t="n">
-        <v>-17</v>
+        <v>-26</v>
       </c>
       <c r="AN74" t="n">
-        <v>-75</v>
+        <v>-23</v>
       </c>
       <c r="AO74" t="n">
+        <v>-59</v>
+      </c>
+      <c r="AP74" t="n">
         <v>-52</v>
       </c>
-      <c r="AP74" t="n">
-        <v>-26</v>
-      </c>
       <c r="AQ74" t="n">
-        <v>-23</v>
+        <v>-27</v>
       </c>
       <c r="AR74" t="n">
-        <v>-59</v>
+        <v>-25</v>
       </c>
       <c r="AS74" t="n">
-        <v>-52</v>
+        <v>-80</v>
       </c>
       <c r="AT74" t="n">
-        <v>-27</v>
+        <v>-44</v>
       </c>
       <c r="AU74" t="n">
         <v>-25</v>
       </c>
       <c r="AV74" t="n">
-        <v>-80</v>
+        <v>-21</v>
       </c>
       <c r="AW74" t="n">
-        <v>-44</v>
+        <v>-64</v>
       </c>
       <c r="AX74" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="AY74" t="n">
+        <v>-27</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>-58</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>-65</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>-14</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>-30</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>-78</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>-36</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>-16</v>
+      </c>
+      <c r="BG74" t="n">
         <v>-21</v>
       </c>
-      <c r="AZ74" t="n">
-        <v>-64</v>
-      </c>
-      <c r="BA74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB74" t="n">
-        <v>-27</v>
-      </c>
-      <c r="BC74" t="n">
-        <v>-58</v>
-      </c>
-      <c r="BD74" t="n">
-        <v>-65</v>
-      </c>
-      <c r="BE74" t="n">
-        <v>-14</v>
-      </c>
-      <c r="BF74" t="n">
-        <v>-30</v>
-      </c>
-      <c r="BG74" t="n">
-        <v>-78</v>
-      </c>
       <c r="BH74" t="n">
-        <v>-36</v>
+        <v>-69</v>
       </c>
       <c r="BI74" t="n">
-        <v>-16</v>
+        <v>-68</v>
       </c>
     </row>
     <row r="75">
@@ -14248,15 +14224,9 @@
       <c r="F77" t="n">
         <v>0</v>
       </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
@@ -14331,15 +14301,9 @@
       <c r="F78" t="n">
         <v>0</v>
       </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
@@ -14467,184 +14431,184 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-148</v>
+        <v>-33</v>
       </c>
       <c r="C80" t="n">
-        <v>-112</v>
+        <v>2779</v>
       </c>
       <c r="D80" t="n">
-        <v>-83</v>
+        <v>-11</v>
       </c>
       <c r="E80" t="n">
-        <v>-33</v>
+        <v>-74</v>
       </c>
       <c r="F80" t="n">
-        <v>2779</v>
+        <v>-15</v>
       </c>
       <c r="G80" t="n">
         <v>-11</v>
       </c>
       <c r="H80" t="n">
+        <v>-54</v>
+      </c>
+      <c r="I80" t="n">
+        <v>-54</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-50</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-257</v>
+      </c>
+      <c r="L80" t="n">
+        <v>-17</v>
+      </c>
+      <c r="M80" t="n">
+        <v>-72</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-35</v>
+      </c>
+      <c r="O80" t="n">
+        <v>-19</v>
+      </c>
+      <c r="P80" t="n">
+        <v>-17</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>-69</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>-64</v>
+      </c>
+      <c r="U80" t="n">
         <v>-74</v>
       </c>
-      <c r="I80" t="n">
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="n">
         <v>-15</v>
       </c>
-      <c r="J80" t="n">
-        <v>-11</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-54</v>
-      </c>
-      <c r="L80" t="n">
-        <v>-54</v>
-      </c>
-      <c r="M80" t="n">
-        <v>-50</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-257</v>
-      </c>
-      <c r="O80" t="n">
+      <c r="X80" t="n">
+        <v>-49</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>-62</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>-62</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>-16</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>-69</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>-81</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>-29</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>-38</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>-52</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>-75</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>-31</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>-18</v>
+      </c>
+      <c r="AJ80" t="n">
         <v>-17</v>
       </c>
-      <c r="P80" t="n">
-        <v>-72</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>-35</v>
-      </c>
-      <c r="R80" t="n">
-        <v>-19</v>
-      </c>
-      <c r="S80" t="n">
-        <v>-17</v>
-      </c>
-      <c r="T80" t="n">
-        <v>-69</v>
-      </c>
-      <c r="U80" t="n">
-        <v>0</v>
-      </c>
-      <c r="V80" t="n">
-        <v>0</v>
-      </c>
-      <c r="W80" t="n">
-        <v>-64</v>
-      </c>
-      <c r="X80" t="n">
-        <v>-74</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>-15</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>-49</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>-62</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>-62</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>-16</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>-69</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>-81</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>-29</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>-38</v>
-      </c>
-      <c r="AI80" t="n">
+      <c r="AK80" t="n">
+        <v>-75</v>
+      </c>
+      <c r="AL80" t="n">
         <v>-52</v>
       </c>
-      <c r="AJ80" t="n">
-        <v>-75</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>-31</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>-18</v>
-      </c>
       <c r="AM80" t="n">
-        <v>-17</v>
+        <v>-26</v>
       </c>
       <c r="AN80" t="n">
-        <v>-75</v>
+        <v>-23</v>
       </c>
       <c r="AO80" t="n">
+        <v>-59</v>
+      </c>
+      <c r="AP80" t="n">
         <v>-52</v>
       </c>
-      <c r="AP80" t="n">
-        <v>-26</v>
-      </c>
       <c r="AQ80" t="n">
-        <v>-23</v>
+        <v>-27</v>
       </c>
       <c r="AR80" t="n">
-        <v>-59</v>
+        <v>-25</v>
       </c>
       <c r="AS80" t="n">
-        <v>-52</v>
+        <v>-80</v>
       </c>
       <c r="AT80" t="n">
-        <v>-27</v>
+        <v>-44</v>
       </c>
       <c r="AU80" t="n">
         <v>-25</v>
       </c>
       <c r="AV80" t="n">
-        <v>-80</v>
+        <v>-21</v>
       </c>
       <c r="AW80" t="n">
-        <v>-44</v>
+        <v>-64</v>
       </c>
       <c r="AX80" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="AY80" t="n">
-        <v>-21</v>
+        <v>-27</v>
       </c>
       <c r="AZ80" t="n">
-        <v>-64</v>
+        <v>-58</v>
       </c>
       <c r="BA80" t="n">
-        <v>0</v>
+        <v>-65</v>
       </c>
       <c r="BB80" t="n">
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="BC80" t="n">
-        <v>-58</v>
+        <v>-16</v>
       </c>
       <c r="BD80" t="n">
-        <v>-65</v>
+        <v>-78</v>
       </c>
       <c r="BE80" t="n">
-        <v>-28</v>
+        <v>-36</v>
       </c>
       <c r="BF80" t="n">
         <v>-16</v>
       </c>
       <c r="BG80" t="n">
-        <v>-78</v>
+        <v>-21</v>
       </c>
       <c r="BH80" t="n">
-        <v>-36</v>
+        <v>-69</v>
       </c>
       <c r="BI80" t="n">
-        <v>-16</v>
+        <v>-68</v>
       </c>
     </row>
   </sheetData>
